--- a/data/trans_bre/P25A_5_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_5_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -561,37 +569,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>M4</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1</t>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,85</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>144,54%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>208,15%</t>
+          <t>10,15</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>374,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-21,87%</t>
+          <t>5,13%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>209,65%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>955,24%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 6,43</t>
+          <t>0,19; 9,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 4,77</t>
+          <t>-3,63; 3,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 2,91</t>
+          <t>0,22; 4,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-42,69; 20,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-55,28; 1065,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 1352,04</t>
+          <t>5,04; 23,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-58,96; 155,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-65,76; 90,94</t>
+          <t>-66,58; 216,3</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-15,91; 1315,92</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>103,95; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>74,94%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>164,76%</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-4,26%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>43,46%</t>
+          <t>102,52%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>208,67%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>219,23%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 2,13</t>
+          <t>-1,47; 1,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 4,02</t>
+          <t>-0,48; 1,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 1,1</t>
+          <t>0,49; 5,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 31,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,9; 576,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,91; 665,42</t>
+          <t>0,61; 4,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-67,05; 171,02</t>
+          <t>-81,36; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,67; 182,89</t>
+          <t>-67,93; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>9,41; 928,25</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>7,75; 1232,92</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-28,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>105,98%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,22%</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>66,39%</t>
+          <t>18,2%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-78,18%</t>
+          <t>140,75%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-3,47%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>25,95%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 2,38</t>
+          <t>-1,61; 1,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 1,85</t>
+          <t>0,28; 4,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,56</t>
+          <t>-2,84; 1,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-67,15; 4,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-69,34; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-69,6; 153,98</t>
+          <t>-2,84; 2,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-32,45; 335,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,24; 584,45</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-68,83; 129,09</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-70,07; 283,47</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>118,86%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>88,08%</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,46%</t>
+          <t>163,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-7,86%</t>
+          <t>-31,45%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>908,37%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 2,46</t>
+          <t>0,09; 4,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 2,56</t>
+          <t>-3,48; 1,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 12,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 379,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 250,17</t>
+          <t>4,27; 11,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,12; 119,23</t>
+          <t>-24,77; 782,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-41,15; 49,61</t>
+          <t>-80,91; 124,54</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>144,77; 4099,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4,73</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>123,94%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>32,98%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>99,23%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>357,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 2,66</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,48; 1,72</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 3,04</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3,18; 7,26</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9,66; 358,32</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-22,77; 122,0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>10,45; 272,71</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>142,98; 730,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25A_5_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_5_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,217 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,24</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,22</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>10,15</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>374,49%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>5,13%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>209,65%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>955,24%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>4.379521622779549</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.04671455635923</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.198903456930986</v>
+      </c>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>9.403807093116656</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>4.732494337067373</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.01204921891617861</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>2.150570715416416</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="n">
+        <v>8.397985326920896</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 9,54</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,63; 3,75</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,22; 4,85</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>5,04; 23,4</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-66,58; 216,3</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-15,91; 1315,92</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>103,95; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.8168567442373179</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.870426870886749</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.2338077003708835</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>4.63162596714849</v>
+      </c>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-0.6788278290990198</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1232428558353671</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="n">
+        <v>0.7276820716521043</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.915473221781335</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.706251118245002</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.741529258295871</v>
+      </c>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>19.29933527045657</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>1.970197905919163</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>13.16532278297576</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,24</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,64</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>18,89%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>102,52%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>208,67%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>219,23%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,47; 1,97</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,48; 1,9</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 5,88</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,61; 4,68</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-81,36; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-67,93; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>9,41; 928,25</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>7,75; 1232,92</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.1296660012848871</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.5743339483381238</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.071137044640572</v>
+      </c>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>2.545615831538135</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.09748219659002497</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.8622191265549203</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1.973258224492896</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="n">
+        <v>2.118337796721126</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,6</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>18,2%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>140,75%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-3,47%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>25,95%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.803841588558809</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.6595575583553305</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.4468409256916482</v>
+      </c>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>0.5730677868914924</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.8649299431952283</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.7383063028119916</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.05717121230977116</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="n">
+        <v>0.07960452586439416</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,61; 1,63</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,28; 4,17</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,84; 1,78</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-2,84; 2,85</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-9,24; 584,45</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-68,83; 129,09</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-70,07; 283,47</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.100523159332394</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.791229158168376</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.333550044321562</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>4.511782521636904</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>5.665924207144356</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>13.23756192554484</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>8.520042156561605</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="n">
+        <v>12.420258653548</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +877,230 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,24</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,91</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,15</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>163,99%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-31,45%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>908,37%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.1899100064286134</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.176890020282847</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.1565008891163438</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>0.7768777405669978</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.2604372170881298</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.419898263888281</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.06426182497213505</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>0.3743923119303441</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,09; 4,72</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,48; 1,61</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>4,27; 11,03</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-24,77; 782,28</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-80,91; 124,54</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>144,77; 4099,84</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.372999175663887</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2452334344549217</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.19026928454021</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-2.279690952931781</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.08295061489978438</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.7261139423430746</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>-0.6569477893830139</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.565087322179812</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.206052347698531</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.668844476955242</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>2.888192118828627</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>5.446158759275505</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.183528251557269</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>3.415566406474934</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,49</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4,73</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>123,94%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>32,98%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>99,23%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>357,61%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 2,66</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,48; 1,72</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 3,04</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>3,18; 7,26</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>9,66; 358,32</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-22,77; 122,0</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>10,45; 272,71</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>142,98; 730,83</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.9515896438515133</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.078692739347809</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.395884791423549</v>
+      </c>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>3.640526713977294</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.9106457156277246</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.6757479577910763</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.9438781527800483</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="n">
+        <v>2.439815003395393</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.4252993171509663</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.09113776654243243</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.2327818887711906</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>1.866980237812499</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3798493314764089</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.09166821752539403</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.03517119138809611</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="n">
+        <v>0.7103415777542748</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.361831251240892</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.252556107633251</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.77221039032222</v>
+      </c>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>6.156403524568404</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>4.559375459411177</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.08131477312768</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>2.581732496491373</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="n">
+        <v>6.686688197083853</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
